--- a/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8017C2-52BE-4C59-A271-40A3E9495CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A05687-A01A-4ACC-8F5E-7D5022565C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{05314541-AD12-4F72-9623-2D38F99167B9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C4DA7766-1FD4-4351-8D28-7AAE4220C4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,168 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>8,83%</t>
   </si>
   <si>
@@ -118,33 +259,6 @@
     <t>10,47%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
     <t>46,28%</t>
   </si>
   <si>
@@ -172,15 +286,6 @@
     <t>50,75%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>44,62%</t>
   </si>
   <si>
@@ -208,109 +313,34 @@
     <t>47,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>8,74%</t>
@@ -340,27 +370,6 @@
     <t>10,3%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>46,47%</t>
   </si>
   <si>
@@ -388,15 +397,6 @@
     <t>50,52%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>44,31%</t>
   </si>
   <si>
@@ -424,6 +424,156 @@
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>6,73%</t>
   </si>
   <si>
@@ -451,27 +601,6 @@
     <t>9,44%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
     <t>34,54%</t>
   </si>
   <si>
@@ -499,30 +628,6 @@
     <t>38,57%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
     <t>56,73%</t>
   </si>
   <si>
@@ -547,109 +652,37 @@
     <t>51,36%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>6,93%</t>
@@ -676,27 +709,6 @@
     <t>9,38%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>34,66%</t>
   </si>
   <si>
@@ -724,18 +736,6 @@
     <t>38,67%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
     <t>56,19%</t>
   </si>
   <si>
@@ -766,6 +766,144 @@
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>6,51%</t>
   </si>
   <si>
@@ -793,30 +931,6 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
     <t>32,99%</t>
   </si>
   <si>
@@ -844,12 +958,6 @@
     <t>35,68%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>58,65%</t>
   </si>
   <si>
@@ -877,112 +985,34 @@
     <t>62,23%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>8,04%</t>
@@ -1012,21 +1042,6 @@
     <t>10,0%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
     <t>30,36%</t>
   </si>
   <si>
@@ -1052,21 +1067,6 @@
   </si>
   <si>
     <t>33,61%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
   </si>
   <si>
     <t>59,8%</t>
@@ -1485,7 +1485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609E07E2-FEDF-45A9-96B5-3F1816848F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947C6E8-6201-4A03-8300-2DCE3B937E77}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1875,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>21929</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1890,34 +1890,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>18742</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>61</v>
-      </c>
-      <c r="N10" s="7">
-        <v>40670</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,46 +1929,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>680</v>
+        <v>808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>2012</v>
+        <v>671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2691</v>
+        <v>1479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,49 +1977,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>114983</v>
+        <v>4949</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>114620</v>
+        <v>4191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
-        <v>343</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>229603</v>
+        <v>9140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2028,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>27908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>24550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>52458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +2079,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>110859</v>
+        <v>25404</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19470</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="7">
-        <v>158</v>
-      </c>
-      <c r="I14" s="7">
-        <v>105660</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>69</v>
+      </c>
+      <c r="N14" s="7">
+        <v>44874</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="M14" s="7">
-        <v>323</v>
-      </c>
-      <c r="N14" s="7">
-        <v>216519</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,102 +2130,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>248450</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241034</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>731</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>489484</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4949</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>4191</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>9140</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,46 +2237,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>808</v>
+        <v>680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>671</v>
+        <v>2012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1479</v>
+        <v>2691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2285,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>27908</v>
+        <v>21929</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7">
+        <v>18742</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="7">
+        <v>61</v>
+      </c>
+      <c r="N18" s="7">
+        <v>40670</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24550</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="7">
-        <v>78</v>
-      </c>
-      <c r="N18" s="7">
-        <v>52458</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,46 +2336,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>114983</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="7">
+        <v>169</v>
+      </c>
+      <c r="I19" s="7">
+        <v>114620</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="7">
+        <v>343</v>
+      </c>
+      <c r="N19" s="7">
+        <v>229603</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>81</v>
@@ -2387,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="D20" s="7">
-        <v>25404</v>
+        <v>110859</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>82</v>
@@ -2402,10 +2402,10 @@
         <v>84</v>
       </c>
       <c r="H20" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I20" s="7">
-        <v>19470</v>
+        <v>105660</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>85</v>
@@ -2417,10 +2417,10 @@
         <v>87</v>
       </c>
       <c r="M20" s="7">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="N20" s="7">
-        <v>44874</v>
+        <v>216519</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>88</v>
@@ -2438,49 +2438,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>248450</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241034</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>731</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>489484</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2491,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>26878</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H22" s="7">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22932</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="7">
-        <v>75</v>
-      </c>
-      <c r="N22" s="7">
-        <v>49810</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>1488</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2563,13 +2563,13 @@
         <v>2682</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -2578,13 +2578,13 @@
         <v>4170</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,49 +2593,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>142890</v>
+        <v>26878</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="7">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22932</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>75</v>
+      </c>
+      <c r="N24" s="7">
+        <v>49810</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="H24" s="7">
-        <v>206</v>
-      </c>
-      <c r="I24" s="7">
-        <v>139170</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M24" s="7">
-        <v>421</v>
-      </c>
-      <c r="N24" s="7">
-        <v>282061</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,46 +2644,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>142890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>206</v>
+      </c>
+      <c r="I25" s="7">
+        <v>139170</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="7">
+        <v>421</v>
+      </c>
+      <c r="N25" s="7">
+        <v>282061</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>118</v>
@@ -2707,7 +2707,7 @@
         <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -2752,13 +2752,13 @@
         <v>307518</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -2767,13 +2767,13 @@
         <v>289916</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>894</v>
@@ -2782,13 +2782,13 @@
         <v>597435</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473C12B7-0D0D-4D95-BC29-CBFAA1ECFDAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F62AF5-0643-4202-A335-6CE7FFBB18CC}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,49 +3197,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>17279</v>
+        <v>680</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19607</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>680</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="7">
-        <v>53</v>
-      </c>
-      <c r="N10" s="7">
-        <v>36887</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3248,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2435</v>
+        <v>1336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3275</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>5709</v>
+        <v>1336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,49 +3299,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>88729</v>
+        <v>5108</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4829</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="7">
+        <v>14</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9937</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="7">
-        <v>123</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85445</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M12" s="7">
-        <v>251</v>
-      </c>
-      <c r="N12" s="7">
-        <v>174175</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,49 +3350,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>2716</v>
+        <v>23265</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7">
+        <v>29743</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="7">
+        <v>74</v>
+      </c>
+      <c r="N13" s="7">
+        <v>53008</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4498</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7215</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3401,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>145755</v>
+        <v>35785</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="7">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7">
+        <v>34006</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="7">
+        <v>98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>69791</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H14" s="7">
-        <v>183</v>
-      </c>
-      <c r="I14" s="7">
-        <v>129244</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="7">
-        <v>400</v>
-      </c>
-      <c r="N14" s="7">
-        <v>274999</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,102 +3452,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>256915</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242069</v>
+        <v>68578</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>723</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>498984</v>
+        <v>134752</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>5108</v>
+        <v>2716</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4498</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7215</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4829</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" s="7">
-        <v>14</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9937</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,49 +3556,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1336</v>
+        <v>2435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>3275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>1336</v>
+        <v>5709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3607,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>23265</v>
+        <v>17279</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7">
+        <v>19607</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" s="7">
+        <v>53</v>
+      </c>
+      <c r="N18" s="7">
+        <v>36887</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>29743</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M18" s="7">
-        <v>74</v>
-      </c>
-      <c r="N18" s="7">
-        <v>53008</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,46 +3658,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>680</v>
+        <v>88729</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="7">
+        <v>123</v>
+      </c>
+      <c r="I19" s="7">
+        <v>85445</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" s="7">
+        <v>251</v>
+      </c>
+      <c r="N19" s="7">
+        <v>174175</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>680</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>195</v>
@@ -3709,10 +3709,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D20" s="7">
-        <v>35785</v>
+        <v>145755</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>196</v>
@@ -3724,10 +3724,10 @@
         <v>198</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="I20" s="7">
-        <v>34006</v>
+        <v>129244</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>199</v>
@@ -3736,22 +3736,22 @@
         <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="N20" s="7">
-        <v>69791</v>
+        <v>274999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,49 +3760,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>256915</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>68578</v>
+        <v>242069</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>723</v>
       </c>
       <c r="N21" s="7">
-        <v>134752</v>
+        <v>498984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,49 +3813,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>22387</v>
+        <v>3396</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4498</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="7">
-        <v>35</v>
-      </c>
-      <c r="I22" s="7">
-        <v>24436</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" s="7">
+        <v>11</v>
+      </c>
+      <c r="N22" s="7">
+        <v>7894</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="M22" s="7">
-        <v>67</v>
-      </c>
-      <c r="N22" s="7">
-        <v>46823</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3870,13 @@
         <v>3771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3885,13 +3885,13 @@
         <v>3275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3900,13 +3900,13 @@
         <v>7046</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,49 +3915,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>111994</v>
+        <v>22387</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="7">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24436</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>67</v>
+      </c>
+      <c r="N24" s="7">
+        <v>46823</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="7">
-        <v>165</v>
-      </c>
-      <c r="I24" s="7">
-        <v>115188</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M24" s="7">
-        <v>325</v>
-      </c>
-      <c r="N24" s="7">
-        <v>227182</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,40 +3966,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D25" s="7">
-        <v>3396</v>
+        <v>111994</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="I25" s="7">
-        <v>4498</v>
+        <v>115188</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="M25" s="7">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="N25" s="7">
-        <v>7894</v>
+        <v>227182</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>229</v>
@@ -4074,13 +4074,13 @@
         <v>323089</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4089,13 +4089,13 @@
         <v>310647</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>912</v>
@@ -4104,13 +4104,13 @@
         <v>633736</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7B613A-BA07-4FA0-A4B4-DA80A4B059E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB471B6-4F8D-44B9-A9B8-483544A85D74}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,49 +4519,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>17658</v>
+        <v>1193</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>753</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="7">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22409</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1946</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="M10" s="7">
-        <v>54</v>
-      </c>
-      <c r="N10" s="7">
-        <v>40067</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,49 +4570,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3733</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>564</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>564</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3042</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6775</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4621,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>89516</v>
+        <v>10224</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6654</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M12" s="7">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7">
+        <v>16877</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="7">
-        <v>113</v>
-      </c>
-      <c r="I12" s="7">
-        <v>80308</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M12" s="7">
-        <v>236</v>
-      </c>
-      <c r="N12" s="7">
-        <v>169824</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,46 +4672,46 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>1298</v>
+        <v>15735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="7">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25846</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" s="7">
+        <v>62</v>
+      </c>
+      <c r="N13" s="7">
+        <v>41580</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1244</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2541</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>269</v>
@@ -4723,10 +4723,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>159158</v>
+        <v>48131</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>270</v>
@@ -4738,10 +4738,10 @@
         <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="I14" s="7">
-        <v>151636</v>
+        <v>52599</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>273</v>
@@ -4753,10 +4753,10 @@
         <v>275</v>
       </c>
       <c r="M14" s="7">
-        <v>426</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>310794</v>
+        <v>100730</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>276</v>
@@ -4774,102 +4774,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>367</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7">
-        <v>271362</v>
+        <v>75282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>86415</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>729</v>
+        <v>239</v>
       </c>
       <c r="N15" s="7">
-        <v>530001</v>
+        <v>161697</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>10224</v>
+        <v>1298</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>6654</v>
+        <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>16877</v>
+        <v>2541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,49 +4878,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3733</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3042</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6775</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>564</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>564</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,46 +4932,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>15735</v>
+        <v>17658</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="7">
+        <v>31</v>
+      </c>
+      <c r="I18" s="7">
+        <v>22409</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>54</v>
+      </c>
+      <c r="N18" s="7">
+        <v>40067</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="7">
-        <v>39</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25846</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M18" s="7">
-        <v>62</v>
-      </c>
-      <c r="N18" s="7">
-        <v>41580</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,46 +4980,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>1193</v>
+        <v>89516</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H19" s="7">
+        <v>113</v>
+      </c>
+      <c r="I19" s="7">
+        <v>80308</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>753</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>236</v>
+      </c>
+      <c r="N19" s="7">
+        <v>169824</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1946</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>305</v>
@@ -5031,10 +5031,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="D20" s="7">
-        <v>48131</v>
+        <v>159158</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>306</v>
@@ -5046,10 +5046,10 @@
         <v>308</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="I20" s="7">
-        <v>52599</v>
+        <v>151636</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>309</v>
@@ -5061,10 +5061,10 @@
         <v>311</v>
       </c>
       <c r="M20" s="7">
-        <v>148</v>
+        <v>426</v>
       </c>
       <c r="N20" s="7">
-        <v>100730</v>
+        <v>310794</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>312</v>
@@ -5082,49 +5082,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>109</v>
+        <v>367</v>
       </c>
       <c r="D21" s="7">
-        <v>75282</v>
+        <v>271362</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>86415</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>239</v>
+        <v>729</v>
       </c>
       <c r="N21" s="7">
-        <v>161697</v>
+        <v>530001</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,10 +5135,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>27882</v>
+        <v>2490</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>315</v>
@@ -5150,34 +5150,34 @@
         <v>317</v>
       </c>
       <c r="H22" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>29063</v>
+        <v>1996</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="M22" s="7">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>56944</v>
+        <v>4487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5192,13 @@
         <v>3733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5207,13 +5207,13 @@
         <v>3606</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -5222,13 +5222,13 @@
         <v>7339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,49 +5237,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7">
-        <v>105251</v>
+        <v>27882</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="7">
+        <v>41</v>
+      </c>
+      <c r="I24" s="7">
+        <v>29063</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>79</v>
+      </c>
+      <c r="N24" s="7">
+        <v>56944</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H24" s="7">
-        <v>152</v>
-      </c>
-      <c r="I24" s="7">
-        <v>106153</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M24" s="7">
-        <v>298</v>
-      </c>
-      <c r="N24" s="7">
-        <v>211404</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,49 +5288,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7">
-        <v>2490</v>
+        <v>105251</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="7">
+        <v>152</v>
+      </c>
+      <c r="I25" s="7">
+        <v>106153</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>298</v>
+      </c>
+      <c r="N25" s="7">
+        <v>211404</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1996</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="M25" s="7">
-        <v>7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4487</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5396,13 @@
         <v>346644</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
         <v>492</v>
@@ -5411,13 +5411,13 @@
         <v>345054</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>968</v>
@@ -5426,13 +5426,13 @@
         <v>691698</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A05687-A01A-4ACC-8F5E-7D5022565C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1430C777-20FE-4435-8CF2-54D4A9BBFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C4DA7766-1FD4-4351-8D28-7AAE4220C4ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12F25579-4C84-4A3A-B773-164910D7365E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="368">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,1033 +67,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
     <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1152,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1200,39 +1248,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1284,7 +1332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1395,13 +1443,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1410,6 +1451,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1474,19 +1522,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947C6E8-6201-4A03-8300-2DCE3B937E77}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46775851-6A3A-449E-855E-F26B879E9BC4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1877,47 +1945,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,49 +1988,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,49 +2033,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2078,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>78</v>
-      </c>
-      <c r="N13" s="7">
-        <v>52458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +2123,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>25404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
-      </c>
-      <c r="N14" s="7">
-        <v>44874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,102 +2168,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>51655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>52644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>104298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2266,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7">
-        <v>680</v>
+        <v>58846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I17" s="7">
-        <v>2012</v>
+        <v>50833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>2691</v>
+        <v>109679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2317,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>21929</v>
+        <v>11505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6910</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="7">
         <v>28</v>
       </c>
-      <c r="I18" s="7">
-        <v>18742</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="7">
-        <v>61</v>
-      </c>
       <c r="N18" s="7">
-        <v>40670</v>
+        <v>18415</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2368,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>114983</v>
+        <v>808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>114620</v>
+        <v>1325</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>229603</v>
+        <v>2133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,49 +2419,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>110859</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>105660</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>216519</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,102 +2470,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>373</v>
+        <v>185</v>
       </c>
       <c r="D21" s="7">
-        <v>248450</v>
+        <v>122814</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241034</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>731</v>
+        <v>353</v>
       </c>
       <c r="N21" s="7">
-        <v>489484</v>
+        <v>234525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>84608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>72488</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>157095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,49 +2574,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7">
-        <v>1488</v>
+        <v>84044</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
-        <v>2682</v>
+        <v>88338</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>257</v>
       </c>
       <c r="N23" s="7">
-        <v>4170</v>
+        <v>172382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,49 +2625,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>26878</v>
+        <v>15373</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>22932</v>
+        <v>16023</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>49810</v>
+        <v>31396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,49 +2676,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>142890</v>
+        <v>680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>139170</v>
+        <v>1358</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>282061</v>
+        <v>2037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,49 +2727,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>136262</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>125131</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>261394</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,55 +2778,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>278</v>
+      </c>
+      <c r="D27" s="7">
+        <v>184704</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>263</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178206</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>541</v>
+      </c>
+      <c r="N27" s="7">
+        <v>362910</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>205</v>
+      </c>
+      <c r="D28" s="7">
+        <v>136262</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="7">
+        <v>187</v>
+      </c>
+      <c r="I28" s="7">
+        <v>125131</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="7">
+        <v>392</v>
+      </c>
+      <c r="N28" s="7">
+        <v>261394</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>215</v>
+      </c>
+      <c r="D29" s="7">
+        <v>142890</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="7">
+        <v>206</v>
+      </c>
+      <c r="I29" s="7">
+        <v>139170</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="7">
+        <v>421</v>
+      </c>
+      <c r="N29" s="7">
+        <v>282061</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26878</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="7">
+        <v>34</v>
+      </c>
+      <c r="I30" s="7">
+        <v>22932</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" s="7">
+        <v>75</v>
+      </c>
+      <c r="N30" s="7">
+        <v>49810</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1488</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2682</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4170</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>463</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>307518</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>431</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289916</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>894</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>597435</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2807,8 +3153,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F62AF5-0643-4202-A335-6CE7FFBB18CC}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD0CFF-C024-4022-AC8B-2EF118279526}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2824,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3197,49 +3543,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3588,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,49 +3633,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>14</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,49 +3678,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
-      </c>
-      <c r="N13" s="7">
-        <v>53008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3723,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7">
-        <v>35785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>34006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
-      </c>
-      <c r="N14" s="7">
-        <v>69791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,102 +3768,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7">
-        <v>2716</v>
+        <v>83938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>4498</v>
+        <v>80305</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="N16" s="7">
-        <v>7215</v>
+        <v>164243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,49 +3866,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7">
-        <v>2435</v>
+        <v>53546</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>3275</v>
+        <v>55233</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="N17" s="7">
-        <v>5709</v>
+        <v>108780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3917,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>17279</v>
+        <v>11618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>19607</v>
+        <v>11648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>36887</v>
+        <v>23266</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,49 +3968,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>88729</v>
+        <v>2568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>85445</v>
+        <v>1251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>174175</v>
+        <v>3819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,49 +4019,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>145755</v>
+        <v>2035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>129244</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>274999</v>
+        <v>2035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,102 +4070,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7">
-        <v>256915</v>
+        <v>153705</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="I21" s="7">
-        <v>242069</v>
+        <v>148438</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>723</v>
+        <v>433</v>
       </c>
       <c r="N21" s="7">
-        <v>498984</v>
+        <v>302143</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>3396</v>
+        <v>97602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="I22" s="7">
-        <v>4498</v>
+        <v>82945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="N22" s="7">
-        <v>7894</v>
+        <v>180547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,49 +4174,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>3771</v>
+        <v>58448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>3275</v>
+        <v>59954</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="N23" s="7">
-        <v>7046</v>
+        <v>118403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,49 +4225,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>22387</v>
+        <v>10769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>24436</v>
+        <v>12788</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N24" s="7">
-        <v>46823</v>
+        <v>23557</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4276,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>111994</v>
+        <v>1204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>115188</v>
+        <v>2023</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
-        <v>325</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>227182</v>
+        <v>3227</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4327,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>181540</v>
+        <v>1361</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>163250</v>
+        <v>4498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
-        <v>498</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>344790</v>
+        <v>5859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,55 +4378,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>249</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169384</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>479</v>
+      </c>
+      <c r="N27" s="7">
+        <v>331593</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>267</v>
+      </c>
+      <c r="D28" s="7">
+        <v>181540</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="7">
+        <v>231</v>
+      </c>
+      <c r="I28" s="7">
+        <v>163250</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="7">
+        <v>498</v>
+      </c>
+      <c r="N28" s="7">
+        <v>344790</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>160</v>
+      </c>
+      <c r="D29" s="7">
+        <v>111994</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="7">
+        <v>165</v>
+      </c>
+      <c r="I29" s="7">
+        <v>115188</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="7">
+        <v>325</v>
+      </c>
+      <c r="N29" s="7">
+        <v>227182</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22387</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="7">
+        <v>35</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24436</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" s="7">
+        <v>67</v>
+      </c>
+      <c r="N30" s="7">
+        <v>46823</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3771</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3275</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7046</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3396</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4498</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" s="7">
+        <v>11</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7894</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>470</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>323089</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310647</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>912</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>633736</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4129,8 +4753,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB471B6-4F8D-44B9-A9B8-483544A85D74}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA4BE8-D405-49C1-BD63-3617A340C816}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4146,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4519,49 +5143,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,47 +5190,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +5233,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
-      </c>
-      <c r="N12" s="7">
-        <v>16877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +5278,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7">
-        <v>15735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +5323,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>69</v>
-      </c>
-      <c r="D14" s="7">
-        <v>48131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
-      </c>
-      <c r="I14" s="7">
-        <v>52599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>148</v>
-      </c>
-      <c r="N14" s="7">
-        <v>100730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,102 +5368,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>130</v>
-      </c>
-      <c r="I15" s="7">
-        <v>86415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>239</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7">
-        <v>1298</v>
+        <v>111552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>1244</v>
+        <v>109573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="N16" s="7">
-        <v>2541</v>
+        <v>221126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,49 +5466,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>3733</v>
+        <v>44977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>3042</v>
+        <v>55962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="N17" s="7">
-        <v>6775</v>
+        <v>100939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,46 +5520,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>17658</v>
+        <v>16089</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>22409</v>
+        <v>11204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N18" s="7">
-        <v>40067</v>
+        <v>27293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,49 +5568,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>89516</v>
+        <v>2883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>80308</v>
+        <v>2128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>169824</v>
+        <v>5010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +5619,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>159158</v>
+        <v>1855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>151636</v>
+        <v>1379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>310794</v>
+        <v>3234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,102 +5670,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="D21" s="7">
-        <v>271362</v>
+        <v>177356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180247</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>729</v>
+        <v>506</v>
       </c>
       <c r="N21" s="7">
-        <v>530001</v>
+        <v>357603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>2490</v>
+        <v>95737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="I22" s="7">
-        <v>1996</v>
+        <v>94662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="N22" s="7">
-        <v>4487</v>
+        <v>190398</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,49 +5774,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7">
-        <v>3733</v>
+        <v>60273</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="I23" s="7">
-        <v>3606</v>
+        <v>50191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="N23" s="7">
-        <v>7339</v>
+        <v>110464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,49 +5825,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>27882</v>
+        <v>11792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H24" s="7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>29063</v>
+        <v>17859</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="N24" s="7">
-        <v>56944</v>
+        <v>29651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,49 +5876,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>105251</v>
+        <v>850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>106153</v>
+        <v>1479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>211404</v>
+        <v>2329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,49 +5927,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>207289</v>
+        <v>636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>204235</v>
+        <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>411524</v>
+        <v>1253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,55 +5978,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>228</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169288</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>462</v>
+      </c>
+      <c r="N27" s="7">
+        <v>334095</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>283</v>
+      </c>
+      <c r="D28" s="7">
+        <v>207289</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="7">
+        <v>291</v>
+      </c>
+      <c r="I28" s="7">
+        <v>204235</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M28" s="7">
+        <v>574</v>
+      </c>
+      <c r="N28" s="7">
+        <v>411524</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>146</v>
+      </c>
+      <c r="D29" s="7">
+        <v>105251</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="7">
+        <v>152</v>
+      </c>
+      <c r="I29" s="7">
+        <v>106153</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M29" s="7">
+        <v>298</v>
+      </c>
+      <c r="N29" s="7">
+        <v>211404</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <v>27882</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="7">
+        <v>41</v>
+      </c>
+      <c r="I30" s="7">
+        <v>29063</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M30" s="7">
+        <v>79</v>
+      </c>
+      <c r="N30" s="7">
+        <v>56944</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3733</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3606</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7339</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2490</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1996</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4487</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>476</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>346644</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345054</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>968</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>691698</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>53</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1430C777-20FE-4435-8CF2-54D4A9BBFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E015E40F-DC96-4CEC-87C2-83A4060591D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12F25579-4C84-4A3A-B773-164910D7365E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7920B42-6A01-4502-84F8-48F97EF8873B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="366">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -97,214 +97,211 @@
     <t>42,06%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>44,47%</t>
   </si>
   <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
   </si>
   <si>
     <t>47,91%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
   </si>
   <si>
     <t>46,77%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>5,49%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -313,7 +310,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -328,820 +325,817 @@
     <t>44,31%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>43,16%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>46,47%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46775851-6A3A-449E-855E-F26B879E9BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB936D5-187B-47C4-8F2E-3147D93A3681}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2595,13 +2589,13 @@
         <v>88338</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>257</v>
@@ -2610,13 +2604,13 @@
         <v>172382</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2625,13 @@
         <v>15373</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -2646,13 +2640,13 @@
         <v>16023</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -2661,13 +2655,13 @@
         <v>31396</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2676,13 @@
         <v>680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2697,13 +2691,13 @@
         <v>1358</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2712,13 +2706,13 @@
         <v>2037</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2733,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2754,7 +2748,7 @@
         <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2769,7 +2763,7 @@
         <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2831,13 @@
         <v>136262</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>187</v>
@@ -2852,13 +2846,13 @@
         <v>125131</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>392</v>
@@ -2867,13 +2861,13 @@
         <v>261394</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2882,13 @@
         <v>142890</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H29" s="7">
         <v>206</v>
@@ -2903,13 +2897,13 @@
         <v>139170</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>421</v>
@@ -2918,13 +2912,13 @@
         <v>282061</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2933,13 @@
         <v>26878</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -2954,13 +2948,13 @@
         <v>22932</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -2969,10 +2963,10 @@
         <v>49810</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>120</v>
@@ -3153,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD0CFF-C024-4022-AC8B-2EF118279526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A893CD-1643-4896-B072-174483380787}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4007,10 +4001,10 @@
         <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4019,13 @@
         <v>2035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4046,7 +4040,7 @@
         <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4055,13 +4049,13 @@
         <v>2035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4123,13 @@
         <v>97602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4144,13 +4138,13 @@
         <v>82945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -4159,13 +4153,13 @@
         <v>180547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4174,13 @@
         <v>58448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4195,13 +4189,13 @@
         <v>59954</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>172</v>
@@ -4210,13 +4204,13 @@
         <v>118403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,7 +4225,7 @@
         <v>10769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>192</v>
@@ -4300,10 +4294,10 @@
         <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4312,10 +4306,10 @@
         <v>3227</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>206</v>
@@ -4351,10 +4345,10 @@
         <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4363,13 +4357,13 @@
         <v>5859</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4431,13 @@
         <v>181540</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H28" s="7">
         <v>231</v>
@@ -4452,13 +4446,13 @@
         <v>163250</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M28" s="7">
         <v>498</v>
@@ -4467,13 +4461,13 @@
         <v>344790</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4482,13 @@
         <v>111994</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H29" s="7">
         <v>165</v>
@@ -4503,13 +4497,13 @@
         <v>115188</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M29" s="7">
         <v>325</v>
@@ -4518,13 +4512,13 @@
         <v>227182</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4533,13 @@
         <v>22387</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -4554,13 +4548,13 @@
         <v>24436</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -4569,13 +4563,13 @@
         <v>46823</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4584,13 @@
         <v>3771</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>129</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4605,10 +4599,10 @@
         <v>3275</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>245</v>
@@ -4641,13 +4635,13 @@
         <v>3396</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4656,13 +4650,13 @@
         <v>4498</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4674,10 +4668,10 @@
         <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA4BE8-D405-49C1-BD63-3617A340C816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96C415-1921-4432-BCE9-ABEEEDE2535A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4770,7 +4764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,13 +5415,13 @@
         <v>111552</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5436,13 +5430,13 @@
         <v>109573</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>313</v>
@@ -5451,13 +5445,13 @@
         <v>221126</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5466,13 @@
         <v>44977</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -5487,13 +5481,13 @@
         <v>55962</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -5502,13 +5496,13 @@
         <v>100939</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5517,13 @@
         <v>16089</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5538,13 +5532,13 @@
         <v>11204</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -5553,13 +5547,13 @@
         <v>27293</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5568,13 @@
         <v>2883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5589,13 +5583,13 @@
         <v>2128</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5604,13 +5598,13 @@
         <v>5010</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5619,13 @@
         <v>1855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5640,13 +5634,13 @@
         <v>1379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5655,13 +5649,13 @@
         <v>3234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5723,13 @@
         <v>95737</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -5744,13 +5738,13 @@
         <v>94662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -5759,13 +5753,13 @@
         <v>190398</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5774,13 @@
         <v>60273</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H23" s="7">
         <v>73</v>
@@ -5795,13 +5789,13 @@
         <v>50191</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -5810,13 +5804,13 @@
         <v>110464</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5825,13 @@
         <v>11792</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -5846,13 +5840,13 @@
         <v>17859</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5861,10 +5855,10 @@
         <v>29651</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>319</v>
@@ -5897,7 +5891,7 @@
         <v>1479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
@@ -5915,10 +5909,10 @@
         <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5927,13 @@
         <v>636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>324</v>
+        <v>203</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5948,13 +5942,13 @@
         <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5963,13 +5957,13 @@
         <v>1253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6031,13 @@
         <v>207289</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H28" s="7">
         <v>291</v>
@@ -6052,13 +6046,13 @@
         <v>204235</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M28" s="7">
         <v>574</v>
@@ -6067,13 +6061,13 @@
         <v>411524</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6082,13 @@
         <v>105251</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H29" s="7">
         <v>152</v>
@@ -6103,13 +6097,13 @@
         <v>106153</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M29" s="7">
         <v>298</v>
@@ -6118,13 +6112,13 @@
         <v>211404</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6133,13 @@
         <v>27882</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H30" s="7">
         <v>41</v>
@@ -6154,13 +6148,13 @@
         <v>29063</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -6169,13 +6163,13 @@
         <v>56944</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6184,13 @@
         <v>3733</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6205,13 +6199,13 @@
         <v>3606</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6220,13 +6214,13 @@
         <v>7339</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6235,13 @@
         <v>2490</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6256,13 +6250,13 @@
         <v>1996</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6271,13 +6265,13 @@
         <v>4487</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E015E40F-DC96-4CEC-87C2-83A4060591D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{491A0F16-DABF-4700-896B-ECEEBEF572C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7920B42-6A01-4502-84F8-48F97EF8873B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{E18D3E21-9EDB-41C8-AEE3-1E5E3590A182}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1048 +94,1027 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>35,47%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
   </si>
   <si>
     <t>59,8%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>0,27%</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB936D5-187B-47C4-8F2E-3147D93A3681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB5EE06-3E82-4C19-80EB-B7B1CC8AE248}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2212,7 +2191,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>51655</v>
+        <v>52644</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2227,7 +2206,7 @@
         <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>52644</v>
+        <v>51655</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2260,10 +2239,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>58846</v>
+        <v>50833</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2275,10 +2254,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7">
-        <v>50833</v>
+        <v>58846</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2311,10 +2290,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>11505</v>
+        <v>6910</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2326,10 +2305,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>6910</v>
+        <v>11505</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2362,10 +2341,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>808</v>
+        <v>1325</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2377,10 +2356,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1325</v>
+        <v>808</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2464,25 +2443,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>185</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122814</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -2517,10 +2496,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D22" s="7">
-        <v>84608</v>
+        <v>72488</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>59</v>
@@ -2532,10 +2511,10 @@
         <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="I22" s="7">
-        <v>72488</v>
+        <v>84608</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>62</v>
@@ -2568,34 +2547,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>129</v>
+      </c>
+      <c r="D23" s="7">
+        <v>88338</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="7">
         <v>128</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>84044</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="7">
-        <v>129</v>
-      </c>
-      <c r="I23" s="7">
-        <v>88338</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>257</v>
@@ -2604,13 +2583,13 @@
         <v>172382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,34 +2598,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16023</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15373</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="7">
-        <v>24</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16023</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -2655,13 +2634,13 @@
         <v>31396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,34 +2649,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>680</v>
+        <v>1358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1358</v>
+        <v>680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2706,13 +2685,13 @@
         <v>2037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,7 +2712,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2748,7 +2727,7 @@
         <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2763,7 +2742,7 @@
         <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,25 +2751,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>263</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178206</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>278</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>184704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>263</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178206</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -2825,34 +2804,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>187</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125131</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="7">
         <v>205</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>136262</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="7">
-        <v>187</v>
-      </c>
-      <c r="I28" s="7">
-        <v>125131</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>392</v>
@@ -2861,13 +2840,13 @@
         <v>261394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,10 +2855,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D29" s="7">
-        <v>142890</v>
+        <v>139170</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>103</v>
@@ -2891,10 +2870,10 @@
         <v>105</v>
       </c>
       <c r="H29" s="7">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I29" s="7">
-        <v>139170</v>
+        <v>142890</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>106</v>
@@ -2927,10 +2906,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D30" s="7">
-        <v>26878</v>
+        <v>22932</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>112</v>
@@ -2942,10 +2921,10 @@
         <v>114</v>
       </c>
       <c r="H30" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I30" s="7">
-        <v>22932</v>
+        <v>26878</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>115</v>
@@ -2978,31 +2957,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>1488</v>
+        <v>2682</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1488</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2682</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>125</v>
@@ -3017,10 +2996,10 @@
         <v>126</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3056,7 +3035,7 @@
         <v>53</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3071,7 +3050,7 @@
         <v>53</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,25 +3059,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>431</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289916</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>463</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>307518</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>431</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289916</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -3127,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A893CD-1643-4896-B072-174483380787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E1195B-D25B-4546-844A-F2FF4EEA9841}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3164,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3809,34 +3788,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>114</v>
+      </c>
+      <c r="D16" s="7">
+        <v>80305</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="7">
         <v>124</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>83938</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>80305</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>238</v>
@@ -3845,13 +3824,13 @@
         <v>164243</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,34 +3839,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55233</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="7">
         <v>74</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>53546</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>55233</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -3896,13 +3875,13 @@
         <v>108780</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,34 +3890,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11648</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11618</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11648</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -3947,13 +3926,13 @@
         <v>23266</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,34 +3941,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1251</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2568</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1251</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3998,13 +3977,13 @@
         <v>3819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,34 +3992,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2035</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4049,13 +4028,13 @@
         <v>2035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,25 +4043,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>212</v>
+      </c>
+      <c r="D21" s="7">
+        <v>148438</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>221</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>153705</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>148438</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -4117,34 +4096,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>117</v>
+      </c>
+      <c r="D22" s="7">
+        <v>82945</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="7">
         <v>143</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>97602</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="7">
-        <v>117</v>
-      </c>
-      <c r="I22" s="7">
-        <v>82945</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -4153,13 +4132,13 @@
         <v>180547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,31 +4150,31 @@
         <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>58448</v>
+        <v>59954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
       </c>
       <c r="I23" s="7">
-        <v>59954</v>
+        <v>58448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
         <v>172</v>
@@ -4204,13 +4183,13 @@
         <v>118403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,34 +4198,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12788</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>10769</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="H24" s="7">
-        <v>18</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12788</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -4255,13 +4234,13 @@
         <v>23557</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,34 +4249,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1204</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2023</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4306,13 +4285,13 @@
         <v>3227</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,34 +4300,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4498</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1361</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4498</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4357,13 +4336,13 @@
         <v>5859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,25 +4351,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>249</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169384</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -4425,34 +4404,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>231</v>
+      </c>
+      <c r="D28" s="7">
+        <v>163250</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="7">
         <v>267</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>181540</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="7">
-        <v>231</v>
-      </c>
-      <c r="I28" s="7">
-        <v>163250</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M28" s="7">
         <v>498</v>
@@ -4461,13 +4440,13 @@
         <v>344790</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,34 +4455,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>165</v>
+      </c>
+      <c r="D29" s="7">
+        <v>115188</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="7">
         <v>160</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>111994</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H29" s="7">
-        <v>165</v>
-      </c>
-      <c r="I29" s="7">
-        <v>115188</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>325</v>
@@ -4512,13 +4491,13 @@
         <v>227182</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,34 +4506,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7">
+        <v>24436</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
         <v>32</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>22387</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24436</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -4563,13 +4542,13 @@
         <v>46823</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,34 +4557,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3275</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="7">
         <v>6</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3771</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3275</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4614,13 +4593,13 @@
         <v>7046</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,34 +4608,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>3396</v>
+        <v>4498</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H32" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>4498</v>
+        <v>3396</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4665,13 +4644,13 @@
         <v>7894</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,25 +4659,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310647</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>470</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>323089</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310647</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -4727,7 +4706,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4747,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96C415-1921-4432-BCE9-ABEEEDE2535A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D03BF4-5506-48CE-85A2-7435A900005D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4764,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,34 +5388,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>109573</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="7">
         <v>155</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>111552</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="7">
-        <v>158</v>
-      </c>
-      <c r="I16" s="7">
-        <v>109573</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>313</v>
@@ -5445,13 +5424,13 @@
         <v>221126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,34 +5439,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55962</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="7">
         <v>63</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>44977</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>55962</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -5496,13 +5475,13 @@
         <v>100939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,34 +5490,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11204</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="7">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>16089</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11204</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -5547,13 +5526,13 @@
         <v>27293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,34 +5541,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2128</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2883</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2128</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5598,13 +5577,13 @@
         <v>5010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,34 +5592,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1855</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1379</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5649,13 +5628,13 @@
         <v>3234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,25 +5643,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>258</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180247</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>248</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>177356</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>258</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180247</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>57</v>
@@ -5717,34 +5696,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>133</v>
+      </c>
+      <c r="D22" s="7">
+        <v>94662</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="7">
         <v>128</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>95737</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" s="7">
-        <v>133</v>
-      </c>
-      <c r="I22" s="7">
-        <v>94662</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -5753,13 +5732,13 @@
         <v>190398</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,34 +5747,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>73</v>
+      </c>
+      <c r="D23" s="7">
+        <v>50191</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="7">
         <v>83</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>60273</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H23" s="7">
-        <v>73</v>
-      </c>
-      <c r="I23" s="7">
-        <v>50191</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -5804,13 +5783,13 @@
         <v>110464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,34 +5798,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17859</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11792</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17859</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>49</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5855,13 +5834,13 @@
         <v>29651</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,34 +5849,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>850</v>
+        <v>1479</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1479</v>
+        <v>850</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5909,10 +5888,10 @@
         <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,31 +5903,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5957,13 +5936,13 @@
         <v>1253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,25 +5951,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>228</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169288</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>57</v>
@@ -6025,34 +6004,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>291</v>
+      </c>
+      <c r="D28" s="7">
+        <v>204235</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="7">
         <v>283</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>207289</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="7">
-        <v>291</v>
-      </c>
-      <c r="I28" s="7">
-        <v>204235</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M28" s="7">
         <v>574</v>
@@ -6061,13 +6040,13 @@
         <v>411524</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,34 +6055,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>152</v>
+      </c>
+      <c r="D29" s="7">
+        <v>106153</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="7">
         <v>146</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>105251</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H29" s="7">
-        <v>152</v>
-      </c>
-      <c r="I29" s="7">
-        <v>106153</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M29" s="7">
         <v>298</v>
@@ -6112,13 +6091,13 @@
         <v>211404</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,34 +6106,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>29063</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H30" s="7">
         <v>38</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>27882</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H30" s="7">
-        <v>41</v>
-      </c>
-      <c r="I30" s="7">
-        <v>29063</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>113</v>
+        <v>341</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -6163,13 +6142,13 @@
         <v>56944</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,31 +6160,31 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>3733</v>
+        <v>3606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>353</v>
+        <v>236</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>3606</v>
+        <v>3733</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6214,13 +6193,13 @@
         <v>7339</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,34 +6208,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1996</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>2490</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1996</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6265,13 +6244,13 @@
         <v>4487</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>51</v>
+        <v>358</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,25 +6259,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>492</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345054</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>346644</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>492</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345054</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>57</v>
@@ -6327,7 +6306,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
